--- a/dataTools/excelData/equip/equip.xlsx
+++ b/dataTools/excelData/equip/equip.xlsx
@@ -1083,7 +1083,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/dataTools/excelData/equip/equip.xlsx
+++ b/dataTools/excelData/equip/equip.xlsx
@@ -24,7 +24,7 @@
     <author>毛宇澄</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -119,31 +119,135 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>equip_10201</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10301</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10401</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10501</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10601</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Sword_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Sword_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Chest_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Cloak_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Ring_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Chest_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Cloak_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Ring_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boots_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Boots_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3;8,0.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20;7,0.02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>BUFF</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>6,2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_ElfHat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_ElfHat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3;7,0.01;8,0.2</t>
+    <t>1,40;5,2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2;2,30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_40202</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4;2,30;4,3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUALITY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,23 +1181,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="29.75" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="5" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,13 +1216,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1133,18 +1242,21 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10101</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1155,34 +1267,196 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>40201</v>
+        <v>10201</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10501</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>40202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/equip/equip.xlsx
+++ b/dataTools/excelData/equip/equip.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -139,115 +139,171 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Desc_Sword_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Chest_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Cloak_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Ring_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Chest_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Cloak_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Ring_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boots_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Boots_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3;8,0.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20;7,0.02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,40;5,2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,2;2,30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_40202</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4;2,30;4,3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUALITY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼后ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFINED</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Equip_Sword_1_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Desc_Sword_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Chest_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Helmet_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Cloak_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Ring_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Helmet_2_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Helmet_2_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Helmet_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Chest_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Cloak_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Ring_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Boots_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Boots_1_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3;8,0.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,20;7,0.02</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,40;5,2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,2;2,30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Helmet_2_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_40202</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Helmet_2_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4;2,30;4,3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUALITY</t>
+    <t>Equip_Sword_1_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10102</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Sword_1_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5;8,0.2;7,0.01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPOINTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼材料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼花费</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSTGOLD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003,1;20005,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004,1;20005,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATERIALS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1181,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1197,9 +1253,11 @@
     <col min="5" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="29.75" customWidth="1"/>
     <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1224,8 +1282,20 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1242,21 +1312,33 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10101</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1271,50 +1353,71 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>10102</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10201</v>
+        <v>10102</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10301</v>
+        <v>10201</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1323,24 +1426,33 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10401</v>
+        <v>10301</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1349,24 +1461,33 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10501</v>
+        <v>10401</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1375,24 +1496,33 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10601</v>
+        <v>10501</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1401,47 +1531,65 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>40201</v>
+        <v>10601</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>40202</v>
+        <v>40201</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1450,13 +1598,60 @@
         <v>4</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>40202</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>40202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
-        <v>44</v>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/equip/equip.xlsx
+++ b/dataTools/excelData/equip/equip.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -259,18 +259,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Equip_Sword_1_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_10102</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Sword_1_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3,5;8,0.2;7,0.01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -304,6 +292,26 @@
   </si>
   <si>
     <t>MATERIALS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_10101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Sword_1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8;8,0.2;7,0.03</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,12;8,0.2;7,0.05</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,20;8,0.2;7,0.1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1237,13 +1245,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,13 +1294,13 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1324,13 +1332,13 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1365,7 +1373,7 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -1376,10 +1384,10 @@
         <v>10102</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1391,121 +1399,133 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10103</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10201</v>
+        <v>10103</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10104</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10301</v>
+        <v>10104</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10105</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10401</v>
+        <v>10105</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1513,16 +1533,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10501</v>
+        <v>10201</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1531,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1548,16 +1568,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10601</v>
+        <v>10301</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1566,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1583,74 +1603,179 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>40201</v>
+        <v>10401</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10">
-        <v>40202</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>10501</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>40201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
         <v>40202</v>
       </c>
-      <c r="B11" t="s">
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>40202</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
